--- a/Code/Results/Cases/Case_7_61/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_7_61/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>25.71135683517331</v>
+        <v>25.29996711258984</v>
       </c>
       <c r="C2">
-        <v>19.18363305319565</v>
+        <v>18.71228480845797</v>
       </c>
       <c r="D2">
-        <v>3.217173322133096</v>
+        <v>3.712146929608755</v>
       </c>
       <c r="E2">
-        <v>30.3600916865368</v>
+        <v>30.09909619486758</v>
       </c>
       <c r="F2">
-        <v>35.62934804107206</v>
+        <v>17.29995100477344</v>
       </c>
       <c r="G2">
-        <v>2.028556747338335</v>
+        <v>2.043908991759249</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>27.63422686101433</v>
+        <v>12.85740437499536</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.87092423550293</v>
+        <v>23.62815818503516</v>
       </c>
       <c r="C3">
-        <v>17.85885287661228</v>
+        <v>17.57199810504749</v>
       </c>
       <c r="D3">
-        <v>3.300450179365874</v>
+        <v>3.59749845654556</v>
       </c>
       <c r="E3">
-        <v>28.03091200125172</v>
+        <v>27.88810281571637</v>
       </c>
       <c r="F3">
-        <v>33.51463141538132</v>
+        <v>16.59918913251505</v>
       </c>
       <c r="G3">
-        <v>2.0417810374665</v>
+        <v>2.051043767845554</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>26.13104527075353</v>
+        <v>12.58751217609842</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.68650989541188</v>
+        <v>22.54360327761605</v>
       </c>
       <c r="C4">
-        <v>17.00776188675489</v>
+        <v>16.83526365874935</v>
       </c>
       <c r="D4">
-        <v>3.355941251736332</v>
+        <v>3.52557780570322</v>
       </c>
       <c r="E4">
-        <v>26.54876554466452</v>
+        <v>26.46895975988465</v>
       </c>
       <c r="F4">
-        <v>32.20967218362821</v>
+        <v>16.18963647903519</v>
       </c>
       <c r="G4">
-        <v>2.05000089627632</v>
+        <v>2.055526369339835</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>25.21324314298057</v>
+        <v>12.44897348634373</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.18982791406768</v>
+        <v>22.08694938015413</v>
       </c>
       <c r="C5">
-        <v>16.65121901917305</v>
+        <v>16.52587764114491</v>
       </c>
       <c r="D5">
-        <v>3.37950865062309</v>
+        <v>3.495912843721074</v>
       </c>
       <c r="E5">
-        <v>25.93092560151328</v>
+        <v>25.87476459299183</v>
       </c>
       <c r="F5">
-        <v>31.6764042882853</v>
+        <v>16.02808891136416</v>
       </c>
       <c r="G5">
-        <v>2.053381267973238</v>
+        <v>2.057380137012054</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>24.8406169617647</v>
+        <v>12.39910515610767</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>22.10649766354818</v>
+        <v>22.01023280990493</v>
       </c>
       <c r="C6">
-        <v>16.59142199804159</v>
+        <v>16.47395282490013</v>
       </c>
       <c r="D6">
-        <v>3.383476028085912</v>
+        <v>3.490966312316401</v>
       </c>
       <c r="E6">
-        <v>25.82747616107077</v>
+        <v>25.77512858479971</v>
       </c>
       <c r="F6">
-        <v>31.58777353777387</v>
+        <v>16.00159092923052</v>
       </c>
       <c r="G6">
-        <v>2.053944581305099</v>
+        <v>2.057689629650083</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>24.77883107577984</v>
+        <v>12.39121446165241</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.67986868772519</v>
+        <v>22.53750426788427</v>
       </c>
       <c r="C7">
-        <v>17.00299306494977</v>
+        <v>16.83112818660618</v>
       </c>
       <c r="D7">
-        <v>3.356255392559123</v>
+        <v>3.525179139713766</v>
       </c>
       <c r="E7">
-        <v>26.54049018631829</v>
+        <v>26.46101104974458</v>
       </c>
       <c r="F7">
-        <v>32.20248603825582</v>
+        <v>16.18743596040857</v>
       </c>
       <c r="G7">
-        <v>2.050046353925252</v>
+        <v>2.055551258424835</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>25.20821196707133</v>
+        <v>12.44827462669676</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>25.08784172958108</v>
+        <v>24.73551876822906</v>
       </c>
       <c r="C8">
-        <v>18.73450985562591</v>
+        <v>18.32672470576455</v>
       </c>
       <c r="D8">
-        <v>3.244887746641872</v>
+        <v>3.672947966652</v>
       </c>
       <c r="E8">
-        <v>29.56729240299772</v>
+        <v>29.34927899219527</v>
       </c>
       <c r="F8">
-        <v>34.90158119184625</v>
+        <v>17.05411325291636</v>
       </c>
       <c r="G8">
-        <v>2.033099256192522</v>
+        <v>2.046348848654694</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>27.11487574463534</v>
+        <v>12.75856900286797</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>29.39616766244236</v>
+        <v>28.58992846810307</v>
       </c>
       <c r="C9">
-        <v>21.84411156128736</v>
+        <v>20.96886708758742</v>
       </c>
       <c r="D9">
-        <v>3.0693200141961</v>
+        <v>3.949617738405437</v>
       </c>
       <c r="E9">
-        <v>35.13077723849054</v>
+        <v>34.54416360005662</v>
       </c>
       <c r="F9">
-        <v>40.14632992382582</v>
+        <v>18.91209816875176</v>
       </c>
       <c r="G9">
-        <v>2.000369731670092</v>
+        <v>2.029038174210461</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>30.89788932598431</v>
+        <v>13.59170467945748</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>32.33812861265639</v>
+        <v>31.15142394177832</v>
       </c>
       <c r="C10">
-        <v>23.97627958725299</v>
+        <v>22.73412734669457</v>
       </c>
       <c r="D10">
-        <v>2.981553258234314</v>
+        <v>4.143847419069998</v>
       </c>
       <c r="E10">
-        <v>39.06009593708727</v>
+        <v>38.10541674315333</v>
       </c>
       <c r="F10">
-        <v>44.22562801319111</v>
+        <v>20.38886581392283</v>
       </c>
       <c r="G10">
-        <v>1.976145983533202</v>
+        <v>2.016655865023573</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>33.97261294729136</v>
+        <v>14.35070574762169</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>33.63594986616413</v>
+        <v>32.25993359089113</v>
       </c>
       <c r="C11">
-        <v>24.91937481091575</v>
+        <v>23.49970860925271</v>
       </c>
       <c r="D11">
-        <v>2.955270762622535</v>
+        <v>4.230104353320521</v>
       </c>
       <c r="E11">
-        <v>40.83325777346965</v>
+        <v>39.67789339784365</v>
       </c>
       <c r="F11">
-        <v>46.10919476509399</v>
+        <v>21.22734920633514</v>
       </c>
       <c r="G11">
-        <v>1.964949476566954</v>
+        <v>2.011067233912697</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>35.4509647332461</v>
+        <v>14.87826780171814</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>34.12240291255503</v>
+        <v>32.67171679903262</v>
       </c>
       <c r="C12">
-        <v>25.27329931641473</v>
+        <v>23.78431288322621</v>
       </c>
       <c r="D12">
-        <v>2.947796436102792</v>
+        <v>4.262459450767937</v>
       </c>
       <c r="E12">
-        <v>41.50481824305526</v>
+        <v>40.26726686840234</v>
       </c>
       <c r="F12">
-        <v>46.82288619451336</v>
+        <v>21.54455073492705</v>
       </c>
       <c r="G12">
-        <v>1.960669533891595</v>
+        <v>2.008954605753927</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>36.01133815445242</v>
+        <v>15.11967569243912</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>34.01784417446033</v>
+        <v>32.58338413468086</v>
       </c>
       <c r="C13">
-        <v>25.19720588146043</v>
+        <v>23.72325271567975</v>
       </c>
       <c r="D13">
-        <v>2.949286469198359</v>
+        <v>4.255504983936887</v>
       </c>
       <c r="E13">
-        <v>41.36014090381692</v>
+        <v>40.14059250483027</v>
       </c>
       <c r="F13">
-        <v>46.66913344738362</v>
+        <v>21.47624739385649</v>
       </c>
       <c r="G13">
-        <v>1.961593346900858</v>
+        <v>2.009409481375788</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>35.89060424473647</v>
+        <v>15.0676721353962</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>33.67606562550277</v>
+        <v>32.29397023183068</v>
       </c>
       <c r="C14">
-        <v>24.94855235733031</v>
+        <v>23.52322896401704</v>
       </c>
       <c r="D14">
-        <v>2.954602804094298</v>
+        <v>4.232772432998961</v>
       </c>
       <c r="E14">
-        <v>40.88849111498508</v>
+        <v>39.7264988800388</v>
       </c>
       <c r="F14">
-        <v>46.16789226687138</v>
+        <v>21.25345106127958</v>
       </c>
       <c r="G14">
-        <v>1.964598261710037</v>
+        <v>2.010893369838714</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>35.49704778885168</v>
+        <v>14.89812336330235</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>33.46609198796678</v>
+        <v>32.11566134438058</v>
       </c>
       <c r="C15">
-        <v>24.79584938514975</v>
+        <v>23.40002050082938</v>
       </c>
       <c r="D15">
-        <v>2.958199259308969</v>
+        <v>4.218807784540232</v>
       </c>
       <c r="E15">
-        <v>40.59967851276377</v>
+        <v>39.47208558971968</v>
       </c>
       <c r="F15">
-        <v>45.86097306770905</v>
+        <v>21.11694501275397</v>
       </c>
       <c r="G15">
-        <v>1.966433150830478</v>
+        <v>2.011802686326575</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>35.25609666558707</v>
+        <v>14.79430259681146</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>32.25256441593153</v>
+        <v>31.07785302841316</v>
       </c>
       <c r="C16">
-        <v>23.91415876811558</v>
+        <v>22.68334771287211</v>
       </c>
       <c r="D16">
-        <v>2.983586987830398</v>
+        <v>4.138167417121504</v>
       </c>
       <c r="E16">
-        <v>38.94410082074364</v>
+        <v>38.00175647449711</v>
       </c>
       <c r="F16">
-        <v>44.10250409080691</v>
+        <v>20.33401832548842</v>
       </c>
       <c r="G16">
-        <v>1.976872962344179</v>
+        <v>2.017021761641648</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>33.87600375542073</v>
+        <v>14.32663367291851</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>31.49826626302738</v>
+        <v>30.4267788538125</v>
       </c>
       <c r="C17">
-        <v>23.36681881033738</v>
+        <v>22.23415244515484</v>
       </c>
       <c r="D17">
-        <v>3.002988329414779</v>
+        <v>4.088153425241874</v>
       </c>
       <c r="E17">
-        <v>37.92617540688148</v>
+        <v>37.08807866683514</v>
       </c>
       <c r="F17">
-        <v>43.02282767388236</v>
+        <v>19.93861965021834</v>
       </c>
       <c r="G17">
-        <v>1.983222678836141</v>
+        <v>2.020232994310697</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>33.02896174019364</v>
+        <v>14.11944004746709</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>31.06054519893851</v>
+        <v>30.04694743802893</v>
       </c>
       <c r="C18">
-        <v>23.04943078503595</v>
+        <v>21.97225679478445</v>
       </c>
       <c r="D18">
-        <v>3.015394426902954</v>
+        <v>4.059189256481841</v>
       </c>
       <c r="E18">
-        <v>37.339190135647</v>
+        <v>36.55802883949859</v>
       </c>
       <c r="F18">
-        <v>42.40105099160532</v>
+        <v>19.7192276805242</v>
       </c>
       <c r="G18">
-        <v>1.986859244854376</v>
+        <v>2.02208434412206</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>32.54125238154861</v>
+        <v>14.00341954567542</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>30.91165357188758</v>
+        <v>29.91741909144879</v>
       </c>
       <c r="C19">
-        <v>22.94150910869882</v>
+        <v>21.88297495701935</v>
       </c>
       <c r="D19">
-        <v>3.019795168357791</v>
+        <v>4.049348848841611</v>
       </c>
       <c r="E19">
-        <v>37.14013139808099</v>
+        <v>36.37776445352551</v>
       </c>
       <c r="F19">
-        <v>42.19035743922801</v>
+        <v>19.64525149608287</v>
       </c>
       <c r="G19">
-        <v>1.988088235451917</v>
+        <v>2.022712000138715</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>32.37600291230562</v>
+        <v>13.96467469230426</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>31.57895757753261</v>
+        <v>30.49663940566348</v>
       </c>
       <c r="C20">
-        <v>23.42534604038144</v>
+        <v>22.28233491534748</v>
       </c>
       <c r="D20">
-        <v>3.000790587426384</v>
+        <v>4.093497996693158</v>
       </c>
       <c r="E20">
-        <v>38.03467668099903</v>
+        <v>37.1858046053578</v>
       </c>
       <c r="F20">
-        <v>43.13783215512197</v>
+        <v>19.97936938415219</v>
       </c>
       <c r="G20">
-        <v>1.982548453402929</v>
+        <v>2.019890722975316</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>33.11917627334359</v>
+        <v>14.14116910386375</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>33.77658268302479</v>
+        <v>32.37919336988492</v>
       </c>
       <c r="C21">
-        <v>25.02166896658912</v>
+        <v>23.5821240268811</v>
       </c>
       <c r="D21">
-        <v>2.952969313829833</v>
+        <v>4.239457939530508</v>
       </c>
       <c r="E21">
-        <v>41.02700342302345</v>
+        <v>39.84828698316171</v>
       </c>
       <c r="F21">
-        <v>46.31509377224258</v>
+        <v>21.31889915448257</v>
       </c>
       <c r="G21">
-        <v>1.963716865847751</v>
+        <v>2.010457439416306</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>35.61261855036867</v>
+        <v>14.94791686169383</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>35.18420787939491</v>
+        <v>33.56309975540122</v>
       </c>
       <c r="C22">
-        <v>26.04669502215906</v>
+        <v>24.40074205320528</v>
       </c>
       <c r="D22">
-        <v>2.936487776340459</v>
+        <v>4.333052850282513</v>
       </c>
       <c r="E22">
-        <v>42.98468649707325</v>
+        <v>41.55330773732185</v>
       </c>
       <c r="F22">
-        <v>48.39509734424402</v>
+        <v>22.24171177571105</v>
       </c>
       <c r="G22">
-        <v>1.951166396647886</v>
+        <v>2.004312106826864</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>37.24627783738541</v>
+        <v>15.65111499022661</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>34.43523485393661</v>
+        <v>32.93541530105217</v>
       </c>
       <c r="C23">
-        <v>25.50103348816906</v>
+        <v>23.96662339225428</v>
       </c>
       <c r="D23">
-        <v>2.943730682373109</v>
+        <v>4.283265111233855</v>
       </c>
       <c r="E23">
-        <v>41.93878581001418</v>
+        <v>40.6462384662768</v>
       </c>
       <c r="F23">
-        <v>47.28404796711433</v>
+        <v>21.74929727521145</v>
       </c>
       <c r="G23">
-        <v>1.957892796535458</v>
+        <v>2.007591146489613</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>36.37350126973725</v>
+        <v>15.27563020456796</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>31.54248975532101</v>
+        <v>30.46507265713348</v>
       </c>
       <c r="C24">
-        <v>23.39889438365872</v>
+        <v>22.26056298690717</v>
       </c>
       <c r="D24">
-        <v>3.001780324344446</v>
+        <v>4.091082370915118</v>
       </c>
       <c r="E24">
-        <v>37.98562891247511</v>
+        <v>37.14163760331675</v>
       </c>
       <c r="F24">
-        <v>43.08584202271099</v>
+        <v>19.9609412022344</v>
       </c>
       <c r="G24">
-        <v>1.98285331317811</v>
+        <v>2.020045447546667</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>33.07839265400312</v>
+        <v>14.13133575723807</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>28.27222442447461</v>
+        <v>27.59528256260789</v>
       </c>
       <c r="C25">
-        <v>21.03146550505625</v>
+        <v>20.28516814104452</v>
       </c>
       <c r="D25">
-        <v>3.110894215482186</v>
+        <v>3.876297461711801</v>
       </c>
       <c r="E25">
-        <v>33.65921476221811</v>
+        <v>33.1860734708765</v>
       </c>
       <c r="F25">
-        <v>38.7312949959626</v>
+        <v>18.39326957451289</v>
       </c>
       <c r="G25">
-        <v>2.009214981021752</v>
+        <v>2.033653362898536</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>29.86871237857632</v>
+        <v>13.34113048339284</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_7_61/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_7_61/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,40 +415,43 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>25.29996711258984</v>
+        <v>25.0199762757685</v>
       </c>
       <c r="C2">
-        <v>18.71228480845797</v>
+        <v>18.6950388057786</v>
       </c>
       <c r="D2">
-        <v>3.712146929608755</v>
+        <v>4.600058533557597</v>
       </c>
       <c r="E2">
-        <v>30.09909619486758</v>
+        <v>29.81030130768442</v>
       </c>
       <c r="F2">
-        <v>17.29995100477344</v>
+        <v>14.2637097677086</v>
       </c>
       <c r="G2">
-        <v>2.043908991759249</v>
+        <v>16.4246252066374</v>
       </c>
       <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
+        <v>3.519022142734699</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>6.854267521528659</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>8.320599092718295</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -460,42 +463,45 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>12.85740437499536</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>10.67478257136619</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.62815818503516</v>
+        <v>23.42654530782757</v>
       </c>
       <c r="C3">
-        <v>17.57199810504749</v>
+        <v>17.56239440631957</v>
       </c>
       <c r="D3">
-        <v>3.59749845654556</v>
+        <v>4.374431694788903</v>
       </c>
       <c r="E3">
-        <v>27.88810281571637</v>
+        <v>27.95178881101276</v>
       </c>
       <c r="F3">
-        <v>16.59918913251505</v>
+        <v>13.82520562997187</v>
       </c>
       <c r="G3">
-        <v>2.051043767845554</v>
+        <v>15.78173673758178</v>
       </c>
       <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
+        <v>3.275425478242559</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>6.893006367738687</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>8.695123993551963</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -507,42 +513,45 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>12.58751217609842</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>10.59304890132576</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.54360327761605</v>
+        <v>22.39081552796146</v>
       </c>
       <c r="C4">
-        <v>16.83526365874935</v>
+        <v>16.82864542394682</v>
       </c>
       <c r="D4">
-        <v>3.52557780570322</v>
+        <v>4.229074730330646</v>
       </c>
       <c r="E4">
-        <v>26.46895975988465</v>
+        <v>26.7485467236383</v>
       </c>
       <c r="F4">
-        <v>16.18963647903519</v>
+        <v>13.56680120801095</v>
       </c>
       <c r="G4">
-        <v>2.055526369339835</v>
+        <v>15.40333364153994</v>
       </c>
       <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
+        <v>3.120804015908092</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>6.92270318158452</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>8.932465384781198</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -554,42 +563,45 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>12.44897348634373</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>10.55642698829646</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.08694938015413</v>
+        <v>21.95433519744709</v>
       </c>
       <c r="C5">
-        <v>16.52587764114491</v>
+        <v>16.52009274449226</v>
       </c>
       <c r="D5">
-        <v>3.495912843721074</v>
+        <v>4.168160868843191</v>
       </c>
       <c r="E5">
-        <v>25.87476459299183</v>
+        <v>26.24263440200236</v>
       </c>
       <c r="F5">
-        <v>16.02808891136416</v>
+        <v>13.46432760619574</v>
       </c>
       <c r="G5">
-        <v>2.057380137012054</v>
+        <v>15.25342747496451</v>
       </c>
       <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
+        <v>3.056500833050545</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>6.936218676005155</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>9.031011975375712</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -601,42 +613,45 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>12.39910515610767</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>10.54477358728627</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>22.01023280990493</v>
+        <v>21.88098823346649</v>
       </c>
       <c r="C6">
-        <v>16.47395282490013</v>
+        <v>16.46828449963869</v>
       </c>
       <c r="D6">
-        <v>3.490966312316401</v>
+        <v>4.157945899971285</v>
       </c>
       <c r="E6">
-        <v>25.77512858479971</v>
+        <v>26.15768862243816</v>
       </c>
       <c r="F6">
-        <v>16.00159092923052</v>
+        <v>13.44748556118777</v>
       </c>
       <c r="G6">
-        <v>2.057689629650083</v>
+        <v>15.22880034728377</v>
       </c>
       <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
+        <v>3.045744538120589</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>6.938546223703851</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>9.047485322147805</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -648,42 +663,45 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>12.39121446165241</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>10.54303177697614</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.53750426788427</v>
+        <v>22.38498732686547</v>
       </c>
       <c r="C7">
-        <v>16.83112818660618</v>
+        <v>16.8245226816255</v>
       </c>
       <c r="D7">
-        <v>3.525179139713766</v>
+        <v>4.22825997355358</v>
       </c>
       <c r="E7">
-        <v>26.46101104974458</v>
+        <v>26.74178683225396</v>
       </c>
       <c r="F7">
-        <v>16.18743596040857</v>
+        <v>13.56540763323318</v>
       </c>
       <c r="G7">
-        <v>2.055551258424835</v>
+        <v>15.40129432137295</v>
       </c>
       <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
+        <v>3.119942068998931</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>6.922879826135481</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>8.933787047259994</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -695,42 +713,45 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>12.44827462669676</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>10.55625677760803</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>24.73551876822906</v>
+        <v>24.48246607795434</v>
       </c>
       <c r="C8">
-        <v>18.32672470576455</v>
+        <v>18.31249583092357</v>
       </c>
       <c r="D8">
-        <v>3.672947966652</v>
+        <v>4.523697258785662</v>
       </c>
       <c r="E8">
-        <v>29.34927899219527</v>
+        <v>29.18238926956439</v>
       </c>
       <c r="F8">
-        <v>17.05411325291636</v>
+        <v>14.11032831677695</v>
       </c>
       <c r="G8">
-        <v>2.046348848654694</v>
+        <v>16.1996847803202</v>
       </c>
       <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
+        <v>3.43606427580497</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>6.866353546421344</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>8.448183234160869</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -742,42 +763,45 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>12.75856900286797</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>10.64370481896822</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>28.58992846810307</v>
+        <v>28.14100398359264</v>
       </c>
       <c r="C9">
-        <v>20.96886708758742</v>
+        <v>20.9240335938383</v>
       </c>
       <c r="D9">
-        <v>3.949617738405437</v>
+        <v>5.047708737474363</v>
       </c>
       <c r="E9">
-        <v>34.54416360005662</v>
+        <v>33.47546998238241</v>
       </c>
       <c r="F9">
-        <v>18.91209816875176</v>
+        <v>15.26008001727911</v>
       </c>
       <c r="G9">
-        <v>2.029038174210461</v>
+        <v>17.88621762743001</v>
       </c>
       <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
+        <v>4.01699539212637</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>6.805754365765915</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>7.556365181753582</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -789,42 +813,45 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>13.59170467945748</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>10.92846516915742</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>31.15142394177832</v>
+        <v>30.5494214311468</v>
       </c>
       <c r="C10">
-        <v>22.73412734669457</v>
+        <v>22.6262717009699</v>
       </c>
       <c r="D10">
-        <v>4.143847419069998</v>
+        <v>5.425932449049608</v>
       </c>
       <c r="E10">
-        <v>38.10541674315333</v>
+        <v>35.45544325299949</v>
       </c>
       <c r="F10">
-        <v>20.38886581392283</v>
+        <v>16.02497902209617</v>
       </c>
       <c r="G10">
-        <v>2.016655865023573</v>
+        <v>18.96407036698748</v>
       </c>
       <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
+        <v>4.384635294866041</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>6.759629557841191</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>6.912205276886491</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -836,42 +863,45 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>14.35070574762169</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>11.11574609879948</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>32.25993359089113</v>
+        <v>31.55347230074706</v>
       </c>
       <c r="C11">
-        <v>23.49970860925271</v>
+        <v>23.12502954516696</v>
       </c>
       <c r="D11">
-        <v>4.230104353320521</v>
+        <v>5.832319788889675</v>
       </c>
       <c r="E11">
-        <v>39.67789339784365</v>
+        <v>28.87519362307802</v>
       </c>
       <c r="F11">
-        <v>21.22734920633514</v>
+        <v>15.32121074857591</v>
       </c>
       <c r="G11">
-        <v>2.011067233912697</v>
+        <v>17.54805530825501</v>
       </c>
       <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
+        <v>4.715765162041556</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>6.424955193801393</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>6.401926243776505</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -883,42 +913,45 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>14.87826780171814</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>10.36898710343783</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>32.67171679903262</v>
+        <v>31.91452042002395</v>
       </c>
       <c r="C12">
-        <v>23.78431288322621</v>
+        <v>23.20226872272105</v>
       </c>
       <c r="D12">
-        <v>4.262459450767937</v>
+        <v>6.1000886633147</v>
       </c>
       <c r="E12">
-        <v>40.26726686840234</v>
+        <v>22.9693550148255</v>
       </c>
       <c r="F12">
-        <v>21.54455073492705</v>
+        <v>14.54695511827109</v>
       </c>
       <c r="G12">
-        <v>2.008954605753927</v>
+        <v>16.1005198772936</v>
       </c>
       <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
+        <v>5.484895087069399</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>6.146645502264577</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>6.158682688842254</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -930,42 +963,45 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>15.11967569243912</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>9.682065235280826</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>32.58338413468086</v>
+        <v>31.81499648352852</v>
       </c>
       <c r="C13">
-        <v>23.72325271567975</v>
+        <v>22.96265479332398</v>
       </c>
       <c r="D13">
-        <v>4.255504983936887</v>
+        <v>6.28401973802126</v>
       </c>
       <c r="E13">
-        <v>40.14059250483027</v>
+        <v>17.13916950190675</v>
       </c>
       <c r="F13">
-        <v>21.47624739385649</v>
+        <v>13.64842321448252</v>
       </c>
       <c r="G13">
-        <v>2.009409481375788</v>
+        <v>14.48860081676202</v>
       </c>
       <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
+        <v>6.473317673758326</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>5.895746792411564</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>6.115469641411805</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -977,42 +1013,45 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>15.0676721353962</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>8.992141655489883</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>32.29397023183068</v>
+        <v>31.53616472887791</v>
       </c>
       <c r="C14">
-        <v>23.52322896401704</v>
+        <v>22.64893359938369</v>
       </c>
       <c r="D14">
-        <v>4.232772432998961</v>
+        <v>6.376947890626096</v>
       </c>
       <c r="E14">
-        <v>39.7264988800388</v>
+        <v>13.18806828771394</v>
       </c>
       <c r="F14">
-        <v>21.25345106127958</v>
+        <v>12.95439121370355</v>
       </c>
       <c r="G14">
-        <v>2.010893369838714</v>
+        <v>13.26444872541696</v>
       </c>
       <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
+        <v>7.254488050947034</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>5.735089538025218</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>6.184276830834921</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1024,42 +1063,45 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>14.89812336330235</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>8.509645457658381</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>32.11566134438058</v>
+        <v>31.36822179572225</v>
       </c>
       <c r="C15">
-        <v>23.40002050082938</v>
+        <v>22.50304429373811</v>
       </c>
       <c r="D15">
-        <v>4.218807784540232</v>
+        <v>6.381803533878891</v>
       </c>
       <c r="E15">
-        <v>39.47208558971968</v>
+        <v>12.25272172230024</v>
       </c>
       <c r="F15">
-        <v>21.11694501275397</v>
+        <v>12.75943775686272</v>
       </c>
       <c r="G15">
-        <v>2.011802686326575</v>
+        <v>12.92900537342331</v>
       </c>
       <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
+        <v>7.434754854769511</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>5.703180909583931</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>6.235199663950796</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1071,42 +1113,45 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>14.79430259681146</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>8.394707578130324</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>31.07785302841316</v>
+        <v>30.40118106386977</v>
       </c>
       <c r="C16">
-        <v>22.68334771287211</v>
+        <v>21.83862507994197</v>
       </c>
       <c r="D16">
-        <v>4.138167417121504</v>
+        <v>6.201147693859405</v>
       </c>
       <c r="E16">
-        <v>38.00175647449711</v>
+        <v>12.14555507487719</v>
       </c>
       <c r="F16">
-        <v>20.33401832548842</v>
+        <v>12.55936704507104</v>
       </c>
       <c r="G16">
-        <v>2.017021761641648</v>
+        <v>12.66438049392514</v>
       </c>
       <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
+        <v>7.158553149365614</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>5.775943282708565</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>6.51978981985615</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1118,42 +1163,45 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>14.32663367291851</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>8.44111237296093</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>30.4267788538125</v>
+        <v>29.79774583378865</v>
       </c>
       <c r="C17">
-        <v>22.23415244515484</v>
+        <v>21.49266260204716</v>
       </c>
       <c r="D17">
-        <v>4.088153425241874</v>
+        <v>6.007930359694933</v>
       </c>
       <c r="E17">
-        <v>37.08807866683514</v>
+        <v>14.17585394741538</v>
       </c>
       <c r="F17">
-        <v>19.93861965021834</v>
+        <v>12.79214380526223</v>
       </c>
       <c r="G17">
-        <v>2.020232994310697</v>
+        <v>13.1525399683045</v>
       </c>
       <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
+        <v>6.481702185137155</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>5.916266332167506</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>6.700225504556495</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1165,42 +1213,45 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>14.11944004746709</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>8.73611074244279</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>30.04694743802893</v>
+        <v>29.45410793726531</v>
       </c>
       <c r="C18">
-        <v>21.97225679478445</v>
+        <v>21.39304567431683</v>
       </c>
       <c r="D18">
-        <v>4.059189256481841</v>
+        <v>5.784216376113725</v>
       </c>
       <c r="E18">
-        <v>36.55802883949859</v>
+        <v>18.6293046467639</v>
       </c>
       <c r="F18">
-        <v>19.7192276805242</v>
+        <v>13.41398342588488</v>
       </c>
       <c r="G18">
-        <v>2.02208434412206</v>
+        <v>14.32870280066689</v>
       </c>
       <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
+        <v>5.476719350700293</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>6.129439393882254</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>6.839163703020584</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1212,42 +1263,45 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>14.00341954567542</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>9.271833973352251</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>29.91741909144879</v>
+        <v>29.35248340281738</v>
       </c>
       <c r="C19">
-        <v>21.88297495701935</v>
+        <v>21.50359273432873</v>
       </c>
       <c r="D19">
-        <v>4.049348848841611</v>
+        <v>5.555561616544842</v>
       </c>
       <c r="E19">
-        <v>36.37776445352551</v>
+        <v>24.82642542358195</v>
       </c>
       <c r="F19">
-        <v>19.64525149608287</v>
+        <v>14.28926619035288</v>
       </c>
       <c r="G19">
-        <v>2.022712000138715</v>
+        <v>15.9452038398629</v>
       </c>
       <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
+        <v>4.545014231923201</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>6.387981850552045</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>6.972981946528457</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1259,42 +1313,45 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>13.96467469230426</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>9.961923678066722</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>30.49663940566348</v>
+        <v>29.9352974040746</v>
       </c>
       <c r="C20">
-        <v>22.28233491534748</v>
+        <v>22.19057000978179</v>
       </c>
       <c r="D20">
-        <v>4.093497996693158</v>
+        <v>5.330469242403165</v>
       </c>
       <c r="E20">
-        <v>37.1858046053578</v>
+        <v>34.90771233898448</v>
       </c>
       <c r="F20">
-        <v>19.97936938415219</v>
+        <v>15.81544901745924</v>
       </c>
       <c r="G20">
-        <v>2.019890722975316</v>
+        <v>18.66572886540323</v>
       </c>
       <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
+        <v>4.28697425312013</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>6.767629308432091</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>7.077396180057137</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1306,42 +1363,45 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>14.14116910386375</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>11.05682104606042</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>32.37919336988492</v>
+        <v>31.7033598504564</v>
       </c>
       <c r="C21">
-        <v>23.5821240268811</v>
+        <v>23.48041031436374</v>
       </c>
       <c r="D21">
-        <v>4.239457939530508</v>
+        <v>5.565517298006362</v>
       </c>
       <c r="E21">
-        <v>39.84828698316171</v>
+        <v>37.69802647866916</v>
       </c>
       <c r="F21">
-        <v>21.31889915448257</v>
+        <v>16.60486783057977</v>
       </c>
       <c r="G21">
-        <v>2.010457439416306</v>
+        <v>19.85736171551454</v>
       </c>
       <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
+        <v>4.620794139435856</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>6.80192091526572</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>6.643687091204539</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1353,42 +1413,45 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>14.94791686169383</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>11.37750735534325</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>33.56309975540122</v>
+        <v>32.80755998290717</v>
       </c>
       <c r="C22">
-        <v>24.40074205320528</v>
+        <v>24.27471366005571</v>
       </c>
       <c r="D22">
-        <v>4.333052850282513</v>
+        <v>5.727117618399572</v>
       </c>
       <c r="E22">
-        <v>41.55330773732185</v>
+        <v>39.01523719865866</v>
       </c>
       <c r="F22">
-        <v>22.24171177571105</v>
+        <v>17.06373678774011</v>
       </c>
       <c r="G22">
-        <v>2.004312106826864</v>
+        <v>20.52937513955671</v>
       </c>
       <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
+        <v>4.815951486695793</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>6.813401282574961</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>6.355107897213292</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1400,42 +1463,45 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>15.65111499022661</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>11.55235524480254</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>32.93541530105217</v>
+        <v>32.22271269459674</v>
       </c>
       <c r="C23">
-        <v>23.96662339225428</v>
+        <v>23.85390985099643</v>
       </c>
       <c r="D23">
-        <v>4.283265111233855</v>
+        <v>5.641470134713435</v>
       </c>
       <c r="E23">
-        <v>40.6462384662768</v>
+        <v>38.3170737141925</v>
       </c>
       <c r="F23">
-        <v>21.74929727521145</v>
+        <v>16.81829833892957</v>
       </c>
       <c r="G23">
-        <v>2.007591146489613</v>
+        <v>20.16996479266269</v>
       </c>
       <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
+        <v>4.712102775832132</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>6.806527077448159</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>6.508157224301122</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1447,42 +1513,45 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>15.27563020456796</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>11.4576201003207</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>30.46507265713348</v>
+        <v>29.90883075964372</v>
       </c>
       <c r="C24">
-        <v>22.26056298690717</v>
+        <v>22.19131884338015</v>
       </c>
       <c r="D24">
-        <v>4.091082370915118</v>
+        <v>5.303917765208751</v>
       </c>
       <c r="E24">
-        <v>37.14163760331675</v>
+        <v>35.56576254773295</v>
       </c>
       <c r="F24">
-        <v>19.9609412022344</v>
+        <v>15.9009248729226</v>
       </c>
       <c r="G24">
-        <v>2.020045447546667</v>
+        <v>18.82586742715915</v>
       </c>
       <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
+        <v>4.311783291403884</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>6.796400451550704</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>7.107823988442262</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1494,42 +1563,45 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>14.13133575723807</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>11.12955035159716</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>27.59528256260789</v>
+        <v>27.19980628622094</v>
       </c>
       <c r="C25">
-        <v>20.28516814104452</v>
+        <v>20.25059622139422</v>
       </c>
       <c r="D25">
-        <v>3.876297461711801</v>
+        <v>4.912019943344817</v>
       </c>
       <c r="E25">
-        <v>33.1860734708765</v>
+        <v>32.36676599597634</v>
       </c>
       <c r="F25">
-        <v>18.39326957451289</v>
+        <v>14.94103192575869</v>
       </c>
       <c r="G25">
-        <v>2.033653362898536</v>
+        <v>17.41822968494034</v>
       </c>
       <c r="H25">
-        <v>0</v>
-      </c>
-      <c r="I25">
-        <v>0</v>
+        <v>3.863849734248339</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>6.816288820731336</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>7.790831065630021</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1541,7 +1613,13 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>13.34113048339284</v>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>10.83855188635296</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_7_61/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_7_61/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,43 +421,49 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>25.0199762757685</v>
+        <v>24.95643894266549</v>
       </c>
       <c r="C2">
-        <v>18.6950388057786</v>
+        <v>18.79555601074461</v>
       </c>
       <c r="D2">
-        <v>4.600058533557597</v>
+        <v>4.649194314522068</v>
       </c>
       <c r="E2">
-        <v>29.81030130768442</v>
+        <v>29.72505300785597</v>
       </c>
       <c r="F2">
-        <v>14.2637097677086</v>
+        <v>14.32575428709694</v>
       </c>
       <c r="G2">
-        <v>16.4246252066374</v>
+        <v>15.88935838429395</v>
       </c>
       <c r="H2">
-        <v>3.519022142734699</v>
+        <v>3.469506671264829</v>
       </c>
       <c r="J2">
-        <v>6.854267521528659</v>
+        <v>7.703688270153486</v>
       </c>
       <c r="K2">
-        <v>8.320599092718295</v>
+        <v>8.529615281639746</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>9.032727540466523</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>3.58886811306425</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -469,45 +475,51 @@
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>10.67478257136619</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>10.79012670475875</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.42654530782757</v>
+        <v>23.37568918424664</v>
       </c>
       <c r="C3">
-        <v>17.56239440631957</v>
+        <v>17.57936753822337</v>
       </c>
       <c r="D3">
-        <v>4.374431694788903</v>
+        <v>4.41005366948191</v>
       </c>
       <c r="E3">
-        <v>27.95178881101276</v>
+        <v>27.87900922161376</v>
       </c>
       <c r="F3">
-        <v>13.82520562997187</v>
+        <v>13.92906861176597</v>
       </c>
       <c r="G3">
-        <v>15.78173673758178</v>
+        <v>15.26061550789327</v>
       </c>
       <c r="H3">
-        <v>3.275425478242559</v>
+        <v>3.233941840732902</v>
       </c>
       <c r="J3">
-        <v>6.893006367738687</v>
+        <v>7.72011816905266</v>
       </c>
       <c r="K3">
-        <v>8.695123993551963</v>
+        <v>8.876994353663516</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>9.279352429771128</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>3.913288224067493</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -519,45 +531,51 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>10.59304890132576</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>10.7297822887187</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.39081552796146</v>
+        <v>22.34803995631903</v>
       </c>
       <c r="C4">
-        <v>16.82864542394682</v>
+        <v>16.79079077896062</v>
       </c>
       <c r="D4">
-        <v>4.229074730330646</v>
+        <v>4.256014877912372</v>
       </c>
       <c r="E4">
-        <v>26.7485467236383</v>
+        <v>26.6836452488039</v>
       </c>
       <c r="F4">
-        <v>13.56680120801095</v>
+        <v>13.69426804207069</v>
       </c>
       <c r="G4">
-        <v>15.40333364153994</v>
+        <v>14.88995920841169</v>
       </c>
       <c r="H4">
-        <v>3.120804015908092</v>
+        <v>3.084341908930307</v>
       </c>
       <c r="J4">
-        <v>6.92270318158452</v>
+        <v>7.733169269082437</v>
       </c>
       <c r="K4">
-        <v>8.932465384781198</v>
+        <v>9.096257482993963</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>9.441261510037153</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>4.138751715811084</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -569,45 +587,51 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>10.55642698829646</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>10.70371134082458</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.95433519744709</v>
+        <v>21.91494137788054</v>
       </c>
       <c r="C5">
-        <v>16.52009274449226</v>
+        <v>16.45901690617853</v>
       </c>
       <c r="D5">
-        <v>4.168160868843191</v>
+        <v>4.191472621423188</v>
       </c>
       <c r="E5">
-        <v>26.24263440200236</v>
+        <v>26.18101002474049</v>
       </c>
       <c r="F5">
-        <v>13.46432760619574</v>
+        <v>13.60085068990464</v>
       </c>
       <c r="G5">
-        <v>15.25342747496451</v>
+        <v>14.74292643381834</v>
       </c>
       <c r="H5">
-        <v>3.056500833050545</v>
+        <v>3.022109731585501</v>
       </c>
       <c r="J5">
-        <v>6.936218676005155</v>
+        <v>7.739204085461203</v>
       </c>
       <c r="K5">
-        <v>9.031011975375712</v>
+        <v>9.187114699174009</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>9.509863930101531</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>4.236431221508579</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -619,45 +643,51 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>10.54477358728627</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>10.69572136169342</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.88098823346649</v>
+        <v>21.84216179082942</v>
       </c>
       <c r="C6">
-        <v>16.46828449963869</v>
+        <v>16.40330011266874</v>
       </c>
       <c r="D6">
-        <v>4.157945899971285</v>
+        <v>4.180649903208651</v>
       </c>
       <c r="E6">
-        <v>26.15768862243816</v>
+        <v>26.09661276687313</v>
       </c>
       <c r="F6">
-        <v>13.44748556118777</v>
+        <v>13.58547728179694</v>
       </c>
       <c r="G6">
-        <v>15.22880034728377</v>
+        <v>14.71875787220285</v>
       </c>
       <c r="H6">
-        <v>3.045744538120589</v>
+        <v>3.011698875112367</v>
       </c>
       <c r="J6">
-        <v>6.938546223703851</v>
+        <v>7.740248605604822</v>
       </c>
       <c r="K6">
-        <v>9.047485322147805</v>
+        <v>9.202292590455325</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>9.521413433985773</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>4.252981258155667</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -669,45 +699,51 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>10.54303177697614</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>10.69454991313635</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.38498732686547</v>
+        <v>22.34192792668904</v>
       </c>
       <c r="C7">
-        <v>16.8245226816255</v>
+        <v>16.78040838038877</v>
       </c>
       <c r="D7">
-        <v>4.22825997355358</v>
+        <v>4.25876743299263</v>
       </c>
       <c r="E7">
-        <v>26.74178683225396</v>
+        <v>26.67629789550732</v>
       </c>
       <c r="F7">
-        <v>13.56540763323318</v>
+        <v>13.67698820402499</v>
       </c>
       <c r="G7">
-        <v>15.40129432137295</v>
+        <v>14.99026806311106</v>
       </c>
       <c r="H7">
-        <v>3.119942068998931</v>
+        <v>3.083151470653295</v>
       </c>
       <c r="J7">
-        <v>6.922879826135481</v>
+        <v>7.694326336534721</v>
       </c>
       <c r="K7">
-        <v>8.933787047259994</v>
+        <v>9.094199613306539</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>9.438258936817565</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>4.139954605070347</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -719,45 +755,51 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>10.55625677760803</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>10.69187610938863</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>24.48246607795434</v>
+        <v>24.42226445295766</v>
       </c>
       <c r="C8">
-        <v>18.31249583092357</v>
+        <v>18.36662570479877</v>
       </c>
       <c r="D8">
-        <v>4.523697258785662</v>
+        <v>4.579646609144765</v>
       </c>
       <c r="E8">
-        <v>29.18238926956439</v>
+        <v>29.0995102189428</v>
       </c>
       <c r="F8">
-        <v>14.11032831677695</v>
+        <v>14.13587615992522</v>
       </c>
       <c r="G8">
-        <v>16.1996847803202</v>
+        <v>15.9930514447003</v>
       </c>
       <c r="H8">
-        <v>3.43606427580497</v>
+        <v>3.388203202968221</v>
       </c>
       <c r="J8">
-        <v>6.866353546421344</v>
+        <v>7.581284413151613</v>
       </c>
       <c r="K8">
-        <v>8.448183234160869</v>
+        <v>8.637503406815958</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>9.104849871254494</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>3.690355858921055</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -769,45 +811,51 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>10.64370481896822</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>10.72847872505971</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>28.14100398359264</v>
+        <v>28.05011304616522</v>
       </c>
       <c r="C9">
-        <v>20.9240335938383</v>
+        <v>21.16438275580234</v>
       </c>
       <c r="D9">
-        <v>5.047708737474363</v>
+        <v>5.136928445206915</v>
       </c>
       <c r="E9">
-        <v>33.47546998238241</v>
+        <v>33.36206523869177</v>
       </c>
       <c r="F9">
-        <v>15.26008001727911</v>
+        <v>15.1618242797727</v>
       </c>
       <c r="G9">
-        <v>17.88621762743001</v>
+        <v>17.69164753448736</v>
       </c>
       <c r="H9">
-        <v>4.01699539212637</v>
+        <v>3.949327488072876</v>
       </c>
       <c r="J9">
-        <v>6.805754365765915</v>
+        <v>7.522708911859763</v>
       </c>
       <c r="K9">
-        <v>7.556365181753582</v>
+        <v>7.800858577250527</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>8.5495660909679</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>3.062180455787386</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -819,45 +867,51 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>10.92846516915742</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>10.93587671742632</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>30.5494214311468</v>
+        <v>30.43556545792439</v>
       </c>
       <c r="C10">
-        <v>22.6262717009699</v>
+        <v>22.94650295841685</v>
       </c>
       <c r="D10">
-        <v>5.425932449049608</v>
+        <v>5.552615454085743</v>
       </c>
       <c r="E10">
-        <v>35.45544325299949</v>
+        <v>35.31719418914506</v>
       </c>
       <c r="F10">
-        <v>16.02497902209617</v>
+        <v>15.75931874077019</v>
       </c>
       <c r="G10">
-        <v>18.96407036698748</v>
+        <v>19.2690227327229</v>
       </c>
       <c r="H10">
-        <v>4.384635294866041</v>
+        <v>4.301549641263726</v>
       </c>
       <c r="J10">
-        <v>6.759629557841191</v>
+        <v>7.252091468258991</v>
       </c>
       <c r="K10">
-        <v>6.912205276886491</v>
+        <v>7.17595300432297</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>8.174060843740278</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>2.997490283206795</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -869,45 +923,51 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>11.11574609879948</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>10.99861368502428</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>31.55347230074706</v>
+        <v>31.43182680700649</v>
       </c>
       <c r="C11">
-        <v>23.12502954516696</v>
+        <v>23.32297850438351</v>
       </c>
       <c r="D11">
-        <v>5.832319788889675</v>
+        <v>5.987950460054072</v>
       </c>
       <c r="E11">
-        <v>28.87519362307802</v>
+        <v>28.71772083734985</v>
       </c>
       <c r="F11">
-        <v>15.32121074857591</v>
+        <v>14.92613799972366</v>
       </c>
       <c r="G11">
-        <v>17.54805530825501</v>
+        <v>19.02404410349991</v>
       </c>
       <c r="H11">
-        <v>4.715765162041556</v>
+        <v>4.63584456897016</v>
       </c>
       <c r="J11">
-        <v>6.424955193801393</v>
+        <v>6.584024692953469</v>
       </c>
       <c r="K11">
-        <v>6.401926243776505</v>
+        <v>6.732362490930448</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>7.95522688692276</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>2.993107463560516</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -919,45 +979,51 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>10.36898710343783</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>10.16571716250518</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>31.91452042002395</v>
+        <v>31.79136717736329</v>
       </c>
       <c r="C12">
-        <v>23.20226872272105</v>
+        <v>23.29650999135143</v>
       </c>
       <c r="D12">
-        <v>6.1000886633147</v>
+        <v>6.262087239527816</v>
       </c>
       <c r="E12">
-        <v>22.9693550148255</v>
+        <v>22.79408788376045</v>
       </c>
       <c r="F12">
-        <v>14.54695511827109</v>
+        <v>14.12768262523947</v>
       </c>
       <c r="G12">
-        <v>16.1005198772936</v>
+        <v>18.19489369514113</v>
       </c>
       <c r="H12">
-        <v>5.484895087069399</v>
+        <v>5.417675350097361</v>
       </c>
       <c r="J12">
-        <v>6.146645502264577</v>
+        <v>6.249825190103863</v>
       </c>
       <c r="K12">
-        <v>6.158682688842254</v>
+        <v>6.555025062568818</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>7.892253256499236</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>2.924340298331852</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -969,45 +1035,51 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>9.682065235280826</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>9.477154396646521</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>31.81499648352852</v>
+        <v>31.69545903651369</v>
       </c>
       <c r="C13">
-        <v>22.96265479332398</v>
+        <v>22.97004252602744</v>
       </c>
       <c r="D13">
-        <v>6.28401973802126</v>
+        <v>6.427106254957302</v>
       </c>
       <c r="E13">
-        <v>17.13916950190675</v>
+        <v>16.94082103463349</v>
       </c>
       <c r="F13">
-        <v>13.64842321448252</v>
+        <v>13.32073456016045</v>
       </c>
       <c r="G13">
-        <v>14.48860081676202</v>
+        <v>16.57910087284553</v>
       </c>
       <c r="H13">
-        <v>6.473317673758326</v>
+        <v>6.420148190407499</v>
       </c>
       <c r="J13">
-        <v>5.895746792411564</v>
+        <v>6.151705919164939</v>
       </c>
       <c r="K13">
-        <v>6.115469641411805</v>
+        <v>6.558852124363582</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>7.908662296520006</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>2.810319447670035</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -1019,45 +1091,51 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>8.992141655489883</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>8.877173384472668</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>31.53616472887791</v>
+        <v>31.42134485874686</v>
       </c>
       <c r="C14">
-        <v>22.64893359938369</v>
+        <v>22.6015603079528</v>
       </c>
       <c r="D14">
-        <v>6.376947890626096</v>
+        <v>6.495169166018758</v>
       </c>
       <c r="E14">
-        <v>13.18806828771394</v>
+        <v>12.96379714009878</v>
       </c>
       <c r="F14">
-        <v>12.95439121370355</v>
+        <v>12.74263057831307</v>
       </c>
       <c r="G14">
-        <v>13.26444872541696</v>
+        <v>15.0748567492641</v>
       </c>
       <c r="H14">
-        <v>7.254488050947034</v>
+        <v>7.210180345256976</v>
       </c>
       <c r="J14">
-        <v>5.735089538025218</v>
+        <v>6.164976998485748</v>
       </c>
       <c r="K14">
-        <v>6.184276830834921</v>
+        <v>6.638323278581515</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>7.945948477338474</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>2.72567182274557</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1069,45 +1147,51 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>8.509645457658381</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>8.495616843450318</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>31.36822179572225</v>
+        <v>31.25568596270801</v>
       </c>
       <c r="C15">
-        <v>22.50304429373811</v>
+        <v>22.44485419540167</v>
       </c>
       <c r="D15">
-        <v>6.381803533878891</v>
+        <v>6.488976979128267</v>
       </c>
       <c r="E15">
-        <v>12.25272172230024</v>
+        <v>12.0219151239997</v>
       </c>
       <c r="F15">
-        <v>12.75943775686272</v>
+        <v>12.59800350567443</v>
       </c>
       <c r="G15">
-        <v>12.92900537342331</v>
+        <v>14.54764157652095</v>
       </c>
       <c r="H15">
-        <v>7.434754854769511</v>
+        <v>7.392800715360528</v>
       </c>
       <c r="J15">
-        <v>5.703180909583931</v>
+        <v>6.203767515092735</v>
       </c>
       <c r="K15">
-        <v>6.235199663950796</v>
+        <v>6.684837577166706</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>7.962827244540047</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>2.686075564829289</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1119,45 +1203,51 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>8.394707578130324</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>8.420694254137301</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>30.40118106386977</v>
+        <v>30.29959163703646</v>
       </c>
       <c r="C16">
-        <v>21.83862507994197</v>
+        <v>21.80035070331453</v>
       </c>
       <c r="D16">
-        <v>6.201147693859405</v>
+        <v>6.267113669709724</v>
       </c>
       <c r="E16">
-        <v>12.14555507487719</v>
+        <v>11.9365017353875</v>
       </c>
       <c r="F16">
-        <v>12.55936704507104</v>
+        <v>12.58001474799271</v>
       </c>
       <c r="G16">
-        <v>12.66438049392514</v>
+        <v>13.29244960596454</v>
       </c>
       <c r="H16">
-        <v>7.158553149365614</v>
+        <v>7.120684165847546</v>
       </c>
       <c r="J16">
-        <v>5.775943282708565</v>
+        <v>6.544713043281944</v>
       </c>
       <c r="K16">
-        <v>6.51978981985615</v>
+        <v>6.928176452997723</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>8.041982673390173</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>2.434067849664324</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1169,45 +1259,51 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>8.44111237296093</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>8.593642275822187</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>29.79774583378865</v>
+        <v>29.70180365478089</v>
       </c>
       <c r="C17">
-        <v>21.49266260204716</v>
+        <v>21.49310374166637</v>
       </c>
       <c r="D17">
-        <v>6.007930359694933</v>
+        <v>6.060921801596079</v>
       </c>
       <c r="E17">
-        <v>14.17585394741538</v>
+        <v>13.99773150014114</v>
       </c>
       <c r="F17">
-        <v>12.79214380526223</v>
+        <v>12.86761505221139</v>
       </c>
       <c r="G17">
-        <v>13.1525399683045</v>
+        <v>13.31454807642512</v>
       </c>
       <c r="H17">
-        <v>6.481702185137155</v>
+        <v>6.442712077665592</v>
       </c>
       <c r="J17">
-        <v>5.916266332167506</v>
+        <v>6.790838788028089</v>
       </c>
       <c r="K17">
-        <v>6.700225504556495</v>
+        <v>7.085160500931781</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>8.104375863300456</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>2.362537601334375</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1219,45 +1315,51 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>8.73611074244279</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>8.918367181453418</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>29.45410793726531</v>
+        <v>29.36001619409296</v>
       </c>
       <c r="C18">
-        <v>21.39304567431683</v>
+        <v>21.46326883293595</v>
       </c>
       <c r="D18">
-        <v>5.784216376113725</v>
+        <v>5.840524328248287</v>
       </c>
       <c r="E18">
-        <v>18.6293046467639</v>
+        <v>18.48113051151975</v>
       </c>
       <c r="F18">
-        <v>13.41398342588488</v>
+        <v>13.4721897860783</v>
       </c>
       <c r="G18">
-        <v>14.32870280066689</v>
+        <v>14.23432941319249</v>
       </c>
       <c r="H18">
-        <v>5.476719350700293</v>
+        <v>5.430806343094067</v>
       </c>
       <c r="J18">
-        <v>6.129439393882254</v>
+        <v>7.025253694093614</v>
       </c>
       <c r="K18">
-        <v>6.839163703020584</v>
+        <v>7.20484837047763</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>8.168140580203161</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>2.491376901087448</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1269,45 +1371,51 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>9.271833973352251</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>9.430026175805887</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>29.35248340281738</v>
+        <v>29.25677776847178</v>
       </c>
       <c r="C19">
-        <v>21.50359273432873</v>
+        <v>21.66701731370408</v>
       </c>
       <c r="D19">
-        <v>5.555561616544842</v>
+        <v>5.624885008140631</v>
       </c>
       <c r="E19">
-        <v>24.82642542358195</v>
+        <v>24.69570286648713</v>
       </c>
       <c r="F19">
-        <v>14.28926619035288</v>
+        <v>14.28732613655664</v>
       </c>
       <c r="G19">
-        <v>15.9452038398629</v>
+        <v>15.70505292955102</v>
       </c>
       <c r="H19">
-        <v>4.545014231923201</v>
+        <v>4.486166464619785</v>
       </c>
       <c r="J19">
-        <v>6.387981850552045</v>
+        <v>7.256461843094865</v>
       </c>
       <c r="K19">
-        <v>6.972981946528457</v>
+        <v>7.310965283014986</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>8.238190076632447</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>2.630098148358283</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1319,45 +1427,51 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>9.961923678066722</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>10.06373461984069</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>29.9352974040746</v>
+        <v>29.82834733002668</v>
       </c>
       <c r="C20">
-        <v>22.19057000978179</v>
+        <v>22.50670453821751</v>
       </c>
       <c r="D20">
-        <v>5.330469242403165</v>
+        <v>5.436679403474119</v>
       </c>
       <c r="E20">
-        <v>34.90771233898448</v>
+        <v>34.77758933798555</v>
       </c>
       <c r="F20">
-        <v>15.81544901745924</v>
+        <v>15.64397462873415</v>
       </c>
       <c r="G20">
-        <v>18.66572886540323</v>
+        <v>18.54296852058251</v>
       </c>
       <c r="H20">
-        <v>4.28697425312013</v>
+        <v>4.208914476907675</v>
       </c>
       <c r="J20">
-        <v>6.767629308432091</v>
+        <v>7.452284943036491</v>
       </c>
       <c r="K20">
-        <v>7.077396180057137</v>
+        <v>7.34834734167757</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>8.273085990075796</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>2.845141584950294</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1369,45 +1483,51 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>11.05682104606042</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>11.01336335614616</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>31.7033598504564</v>
+        <v>31.57364255623092</v>
       </c>
       <c r="C21">
-        <v>23.48041031436374</v>
+        <v>23.78882920979992</v>
       </c>
       <c r="D21">
-        <v>5.565517298006362</v>
+        <v>5.757864075799368</v>
       </c>
       <c r="E21">
-        <v>37.69802647866916</v>
+        <v>37.54093884747228</v>
       </c>
       <c r="F21">
-        <v>16.60486783057977</v>
+        <v>16.03287813966727</v>
       </c>
       <c r="G21">
-        <v>19.85736171551454</v>
+        <v>21.63498551790568</v>
       </c>
       <c r="H21">
-        <v>4.620794139435856</v>
+        <v>4.525346166892325</v>
       </c>
       <c r="J21">
-        <v>6.80192091526572</v>
+        <v>6.653387703384636</v>
       </c>
       <c r="K21">
-        <v>6.643687091204539</v>
+        <v>6.849394286293917</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>7.996408433942445</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>3.371354724607381</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1419,45 +1539,51 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>11.37750735534325</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>11.01133236058944</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>32.80755998290717</v>
+        <v>32.6632967775964</v>
       </c>
       <c r="C22">
-        <v>24.27471366005571</v>
+        <v>24.56560923295303</v>
       </c>
       <c r="D22">
-        <v>5.727117618399572</v>
+        <v>5.97679985667506</v>
       </c>
       <c r="E22">
-        <v>39.01523719865866</v>
+        <v>38.84072049775899</v>
       </c>
       <c r="F22">
-        <v>17.06373678774011</v>
+        <v>16.2217512619391</v>
       </c>
       <c r="G22">
-        <v>20.52937513955671</v>
+        <v>23.64395158541287</v>
       </c>
       <c r="H22">
-        <v>4.815951486695793</v>
+        <v>4.709543421654081</v>
       </c>
       <c r="J22">
-        <v>6.813401282574961</v>
+        <v>6.155623371976192</v>
       </c>
       <c r="K22">
-        <v>6.355107897213292</v>
+        <v>6.512951523743847</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>7.828434168689594</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>3.704831041524545</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1469,45 +1595,51 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>11.55235524480254</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>10.96254334495817</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>32.22271269459674</v>
+        <v>32.08671611529166</v>
       </c>
       <c r="C23">
-        <v>23.85390985099643</v>
+        <v>24.16572391708209</v>
       </c>
       <c r="D23">
-        <v>5.641470134713435</v>
+        <v>5.853063386458305</v>
       </c>
       <c r="E23">
-        <v>38.3170737141925</v>
+        <v>38.15279218360583</v>
       </c>
       <c r="F23">
-        <v>16.81829833892957</v>
+        <v>16.15557273476294</v>
       </c>
       <c r="G23">
-        <v>20.16996479266269</v>
+        <v>22.36813128039068</v>
       </c>
       <c r="H23">
-        <v>4.712102775832132</v>
+        <v>4.612113314785114</v>
       </c>
       <c r="J23">
-        <v>6.806527077448159</v>
+        <v>6.487342135303306</v>
       </c>
       <c r="K23">
-        <v>6.508157224301122</v>
+        <v>6.700303523392467</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>7.919048015340334</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>3.53764214143714</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1519,45 +1651,51 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>11.4576201003207</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>11.01658789322927</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>29.90883075964372</v>
+        <v>29.80173470039037</v>
       </c>
       <c r="C24">
-        <v>22.19131884338015</v>
+        <v>22.51712939144343</v>
       </c>
       <c r="D24">
-        <v>5.303917765208751</v>
+        <v>5.410884932663295</v>
       </c>
       <c r="E24">
-        <v>35.56576254773295</v>
+        <v>35.43603253267582</v>
       </c>
       <c r="F24">
-        <v>15.9009248729226</v>
+        <v>15.72575751207807</v>
       </c>
       <c r="G24">
-        <v>18.82586742715915</v>
+        <v>18.67579792248436</v>
       </c>
       <c r="H24">
-        <v>4.311783291403884</v>
+        <v>4.233578508008535</v>
       </c>
       <c r="J24">
-        <v>6.796400451550704</v>
+        <v>7.483238736025148</v>
       </c>
       <c r="K24">
-        <v>7.107823988442262</v>
+        <v>7.372566152848788</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>8.287384284563313</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>2.875348337252872</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1569,45 +1707,51 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>11.12955035159716</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>11.08201207853934</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>27.19980628622094</v>
+        <v>27.11748596431449</v>
       </c>
       <c r="C25">
-        <v>20.25059622139422</v>
+        <v>20.45078360273116</v>
       </c>
       <c r="D25">
-        <v>4.912019943344817</v>
+        <v>4.988063435698796</v>
       </c>
       <c r="E25">
-        <v>32.36676599597634</v>
+        <v>32.2622654905112</v>
       </c>
       <c r="F25">
-        <v>14.94103192575869</v>
+        <v>14.8983743443119</v>
       </c>
       <c r="G25">
-        <v>17.41822968494034</v>
+        <v>17.09248343975455</v>
       </c>
       <c r="H25">
-        <v>3.863849734248339</v>
+        <v>3.801921328565203</v>
       </c>
       <c r="J25">
-        <v>6.816288820731336</v>
+        <v>7.589766500452074</v>
       </c>
       <c r="K25">
-        <v>7.790831065630021</v>
+        <v>8.026680759432262</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>8.694143227546226</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>3.201648032371978</v>
       </c>
       <c r="N25">
         <v>0</v>
@@ -1619,7 +1763,13 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>10.83855188635296</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>10.88529291853646</v>
       </c>
     </row>
   </sheetData>
